--- a/辅助总表/战斗配置辅助表/主线战斗配置辅助表.xlsx
+++ b/辅助总表/战斗配置辅助表/主线战斗配置辅助表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="20160" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="35840" yWindow="1840" windowWidth="28800" windowHeight="16560" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="怪物属性偏向" sheetId="15" r:id="rId1"/>
@@ -13696,7 +13696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
@@ -18134,7 +18134,7 @@
   <dimension ref="A1:Z923"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -18536,15 +18536,19 @@
         <v>1000002</v>
       </c>
       <c r="B6" s="19">
+        <f>B5</f>
         <v>0</v>
       </c>
       <c r="C6" s="19">
+        <f t="shared" ref="C6:E6" si="1">C5</f>
         <v>0</v>
       </c>
       <c r="D6" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E6" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F6" s="19">
@@ -18556,6 +18560,7 @@
         <v>134</v>
       </c>
       <c r="H6" s="19">
+        <f t="shared" ref="H6:J60" si="2">H5</f>
         <v>0</v>
       </c>
       <c r="I6" s="19">
@@ -18563,43 +18568,55 @@
         <v>224</v>
       </c>
       <c r="J6" s="19">
-        <f>VLOOKUP(Z6,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="19">
+        <f t="shared" ref="K6" si="3">K5</f>
         <v>100</v>
       </c>
       <c r="L6" s="19">
+        <f t="shared" ref="L6" si="4">L5</f>
         <v>0</v>
       </c>
       <c r="M6" s="19">
+        <f t="shared" ref="M6" si="5">M5</f>
         <v>0</v>
       </c>
       <c r="N6" s="19">
+        <f t="shared" ref="N6" si="6">N5</f>
         <v>95</v>
       </c>
       <c r="O6" s="19">
+        <f t="shared" ref="O6" si="7">O5</f>
         <v>0</v>
       </c>
       <c r="P6" s="19">
+        <f t="shared" ref="P6" si="8">P5</f>
         <v>0</v>
       </c>
       <c r="Q6" s="19">
+        <f t="shared" ref="Q6" si="9">Q5</f>
         <v>0</v>
       </c>
       <c r="R6" s="19">
+        <f t="shared" ref="R6" si="10">R5</f>
         <v>0</v>
       </c>
       <c r="S6" s="19">
+        <f t="shared" ref="S6" si="11">S5</f>
         <v>0</v>
       </c>
       <c r="T6" s="19">
+        <f t="shared" ref="T6" si="12">T5</f>
         <v>0</v>
       </c>
       <c r="U6" s="19">
+        <f t="shared" ref="U6" si="13">U5</f>
         <v>0</v>
       </c>
       <c r="V6" s="19">
+        <f t="shared" ref="V6" si="14">V5</f>
         <v>0</v>
       </c>
       <c r="W6" s="19">
@@ -18625,15 +18642,19 @@
         <v>1000003</v>
       </c>
       <c r="B7" s="19">
+        <f t="shared" ref="B7:B60" si="15">B6</f>
         <v>0</v>
       </c>
       <c r="C7" s="19">
+        <f t="shared" ref="C7:C60" si="16">C6</f>
         <v>0</v>
       </c>
       <c r="D7" s="19">
+        <f t="shared" ref="D7:D60" si="17">D6</f>
         <v>0</v>
       </c>
       <c r="E7" s="19">
+        <f t="shared" ref="E7:E60" si="18">E6</f>
         <v>0</v>
       </c>
       <c r="F7" s="19">
@@ -18645,6 +18666,7 @@
         <v>134</v>
       </c>
       <c r="H7" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="19">
@@ -18652,43 +18674,55 @@
         <v>224</v>
       </c>
       <c r="J7" s="19">
-        <f>VLOOKUP(Z7,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" ref="J7:J60" si="19">J6</f>
         <v>0</v>
       </c>
       <c r="K7" s="19">
+        <f t="shared" ref="K7:K60" si="20">K6</f>
         <v>100</v>
       </c>
       <c r="L7" s="19">
+        <f t="shared" ref="L7:L60" si="21">L6</f>
         <v>0</v>
       </c>
       <c r="M7" s="19">
+        <f t="shared" ref="M7:M60" si="22">M6</f>
         <v>0</v>
       </c>
       <c r="N7" s="19">
+        <f t="shared" ref="N7:N60" si="23">N6</f>
         <v>95</v>
       </c>
       <c r="O7" s="19">
+        <f t="shared" ref="O7:O60" si="24">O6</f>
         <v>0</v>
       </c>
       <c r="P7" s="19">
+        <f t="shared" ref="P7:P60" si="25">P6</f>
         <v>0</v>
       </c>
       <c r="Q7" s="19">
+        <f t="shared" ref="Q7:Q60" si="26">Q6</f>
         <v>0</v>
       </c>
       <c r="R7" s="19">
+        <f t="shared" ref="R7:R60" si="27">R6</f>
         <v>0</v>
       </c>
       <c r="S7" s="19">
+        <f t="shared" ref="S7:S60" si="28">S6</f>
         <v>0</v>
       </c>
       <c r="T7" s="19">
+        <f t="shared" ref="T7:T60" si="29">T6</f>
         <v>0</v>
       </c>
       <c r="U7" s="19">
+        <f t="shared" ref="U7:U60" si="30">U6</f>
         <v>0</v>
       </c>
       <c r="V7" s="19">
+        <f t="shared" ref="V7:V60" si="31">V6</f>
         <v>0</v>
       </c>
       <c r="W7" s="19">
@@ -18704,7 +18738,7 @@
         <v>小蘑菇</v>
       </c>
       <c r="Z7" s="11">
-        <f t="shared" ref="Z7:Z60" si="1">Z6+1</f>
+        <f t="shared" ref="Z7:Z60" si="32">Z6+1</f>
         <v>3</v>
       </c>
     </row>
@@ -18714,15 +18748,19 @@
         <v>1000004</v>
       </c>
       <c r="B8" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C8" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D8" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E8" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F8" s="19">
@@ -18734,6 +18772,7 @@
         <v>147</v>
       </c>
       <c r="H8" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="19">
@@ -18741,43 +18780,55 @@
         <v>246</v>
       </c>
       <c r="J8" s="19">
-        <f>VLOOKUP(Z8,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K8" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L8" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M8" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N8" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O8" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P8" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q8" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R8" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S8" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T8" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U8" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V8" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W8" s="19">
@@ -18793,7 +18844,7 @@
         <v>小蘑菇</v>
       </c>
       <c r="Z8" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
     </row>
@@ -18803,15 +18854,19 @@
         <v>1000005</v>
       </c>
       <c r="B9" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C9" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D9" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E9" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F9" s="19">
@@ -18823,6 +18878,7 @@
         <v>147</v>
       </c>
       <c r="H9" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="19">
@@ -18830,43 +18886,55 @@
         <v>246</v>
       </c>
       <c r="J9" s="19">
-        <f>VLOOKUP(Z9,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K9" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L9" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M9" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N9" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O9" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P9" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q9" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R9" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S9" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T9" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U9" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V9" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W9" s="19">
@@ -18882,7 +18950,7 @@
         <v>小蘑菇</v>
       </c>
       <c r="Z9" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
     </row>
@@ -18892,15 +18960,19 @@
         <v>1000006</v>
       </c>
       <c r="B10" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C10" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D10" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E10" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F10" s="19">
@@ -18912,6 +18984,7 @@
         <v>147</v>
       </c>
       <c r="H10" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="19">
@@ -18919,43 +18992,55 @@
         <v>246</v>
       </c>
       <c r="J10" s="19">
-        <f>VLOOKUP(Z10,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K10" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L10" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M10" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N10" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O10" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P10" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q10" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R10" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S10" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T10" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U10" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V10" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W10" s="19">
@@ -18971,7 +19056,7 @@
         <v>小蘑菇</v>
       </c>
       <c r="Z10" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
     </row>
@@ -18981,15 +19066,19 @@
         <v>1000007</v>
       </c>
       <c r="B11" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C11" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D11" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E11" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F11" s="19">
@@ -19001,6 +19090,7 @@
         <v>162</v>
       </c>
       <c r="H11" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="19">
@@ -19008,43 +19098,55 @@
         <v>172</v>
       </c>
       <c r="J11" s="19">
-        <f>VLOOKUP(Z11,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K11" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L11" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M11" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N11" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O11" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P11" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q11" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R11" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S11" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T11" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U11" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V11" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W11" s="19">
@@ -19060,7 +19162,7 @@
         <v>食人花</v>
       </c>
       <c r="Z11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>7</v>
       </c>
     </row>
@@ -19070,15 +19172,19 @@
         <v>1000008</v>
       </c>
       <c r="B12" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C12" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D12" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E12" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F12" s="19">
@@ -19090,6 +19196,7 @@
         <v>162</v>
       </c>
       <c r="H12" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I12" s="19">
@@ -19097,43 +19204,55 @@
         <v>172</v>
       </c>
       <c r="J12" s="19">
-        <f>VLOOKUP(Z12,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K12" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L12" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M12" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N12" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O12" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P12" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q12" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R12" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S12" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T12" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U12" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V12" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W12" s="19">
@@ -19149,7 +19268,7 @@
         <v>食人花</v>
       </c>
       <c r="Z12" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
     </row>
@@ -19159,15 +19278,19 @@
         <v>1000009</v>
       </c>
       <c r="B13" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C13" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D13" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E13" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F13" s="19">
@@ -19179,6 +19302,7 @@
         <v>160</v>
       </c>
       <c r="H13" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I13" s="19">
@@ -19186,43 +19310,55 @@
         <v>268</v>
       </c>
       <c r="J13" s="19">
-        <f>VLOOKUP(Z13,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K13" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L13" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M13" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N13" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O13" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P13" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q13" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R13" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S13" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T13" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U13" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V13" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W13" s="19">
@@ -19238,7 +19374,7 @@
         <v>小蘑菇</v>
       </c>
       <c r="Z13" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
     </row>
@@ -19248,15 +19384,19 @@
         <v>1000010</v>
       </c>
       <c r="B14" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C14" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D14" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E14" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F14" s="19">
@@ -19268,6 +19408,7 @@
         <v>160</v>
       </c>
       <c r="H14" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I14" s="19">
@@ -19275,43 +19416,55 @@
         <v>268</v>
       </c>
       <c r="J14" s="19">
-        <f>VLOOKUP(Z14,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K14" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L14" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M14" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N14" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O14" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P14" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q14" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R14" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S14" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T14" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U14" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V14" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W14" s="19">
@@ -19327,7 +19480,7 @@
         <v>小蘑菇</v>
       </c>
       <c r="Z14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
     </row>
@@ -19337,15 +19490,19 @@
         <v>1000011</v>
       </c>
       <c r="B15" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C15" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D15" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E15" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F15" s="19">
@@ -19357,6 +19514,7 @@
         <v>176</v>
       </c>
       <c r="H15" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I15" s="19">
@@ -19364,43 +19522,55 @@
         <v>187</v>
       </c>
       <c r="J15" s="19">
-        <f>VLOOKUP(Z15,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K15" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L15" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M15" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N15" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O15" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P15" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q15" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R15" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S15" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T15" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U15" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V15" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W15" s="19">
@@ -19416,7 +19586,7 @@
         <v>食人花</v>
       </c>
       <c r="Z15" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>11</v>
       </c>
     </row>
@@ -19426,15 +19596,19 @@
         <v>1000012</v>
       </c>
       <c r="B16" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C16" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D16" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E16" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F16" s="19">
@@ -19446,6 +19620,7 @@
         <v>176</v>
       </c>
       <c r="H16" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I16" s="19">
@@ -19453,43 +19628,55 @@
         <v>187</v>
       </c>
       <c r="J16" s="19">
-        <f>VLOOKUP(Z16,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K16" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L16" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M16" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N16" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O16" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P16" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q16" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R16" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S16" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T16" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U16" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V16" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W16" s="19">
@@ -19505,7 +19692,7 @@
         <v>食人花</v>
       </c>
       <c r="Z16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>12</v>
       </c>
     </row>
@@ -19515,15 +19702,19 @@
         <v>1000013</v>
       </c>
       <c r="B17" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C17" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D17" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E17" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F17" s="19">
@@ -19535,6 +19726,7 @@
         <v>156</v>
       </c>
       <c r="H17" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I17" s="19">
@@ -19542,43 +19734,55 @@
         <v>290</v>
       </c>
       <c r="J17" s="19">
-        <f>VLOOKUP(Z17,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K17" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L17" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M17" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N17" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O17" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P17" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q17" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R17" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S17" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T17" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U17" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V17" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W17" s="19">
@@ -19594,7 +19798,7 @@
         <v>小花精</v>
       </c>
       <c r="Z17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>13</v>
       </c>
     </row>
@@ -19604,15 +19808,19 @@
         <v>1000014</v>
       </c>
       <c r="B18" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C18" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D18" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E18" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F18" s="19">
@@ -19624,6 +19832,7 @@
         <v>156</v>
       </c>
       <c r="H18" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I18" s="19">
@@ -19631,43 +19840,55 @@
         <v>290</v>
       </c>
       <c r="J18" s="19">
-        <f>VLOOKUP(Z18,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K18" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L18" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M18" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N18" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O18" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P18" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q18" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R18" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S18" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T18" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U18" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V18" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W18" s="19">
@@ -19683,7 +19904,7 @@
         <v>小花精</v>
       </c>
       <c r="Z18" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>14</v>
       </c>
     </row>
@@ -19693,15 +19914,19 @@
         <v>1000015</v>
       </c>
       <c r="B19" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C19" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D19" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E19" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F19" s="19">
@@ -19713,6 +19938,7 @@
         <v>156</v>
       </c>
       <c r="H19" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I19" s="19">
@@ -19720,43 +19946,55 @@
         <v>290</v>
       </c>
       <c r="J19" s="19">
-        <f>VLOOKUP(Z19,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K19" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L19" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M19" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N19" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O19" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P19" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q19" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R19" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S19" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T19" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U19" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V19" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W19" s="19">
@@ -19772,7 +20010,7 @@
         <v>小花精</v>
       </c>
       <c r="Z19" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>15</v>
       </c>
     </row>
@@ -19782,15 +20020,19 @@
         <v>1000016</v>
       </c>
       <c r="B20" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C20" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D20" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E20" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F20" s="19">
@@ -19802,6 +20044,7 @@
         <v>156</v>
       </c>
       <c r="H20" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I20" s="19">
@@ -19809,43 +20052,55 @@
         <v>290</v>
       </c>
       <c r="J20" s="19">
-        <f>VLOOKUP(Z20,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K20" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L20" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M20" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N20" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O20" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P20" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q20" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R20" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S20" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T20" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U20" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V20" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W20" s="19">
@@ -19861,7 +20116,7 @@
         <v>小花精</v>
       </c>
       <c r="Z20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>16</v>
       </c>
     </row>
@@ -19871,15 +20126,19 @@
         <v>1000017</v>
       </c>
       <c r="B21" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C21" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D21" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E21" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F21" s="19">
@@ -19891,6 +20150,7 @@
         <v>220</v>
       </c>
       <c r="H21" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I21" s="19">
@@ -19898,43 +20158,55 @@
         <v>233</v>
       </c>
       <c r="J21" s="19">
-        <f>VLOOKUP(Z21,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K21" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L21" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M21" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N21" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O21" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P21" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q21" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R21" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S21" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T21" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U21" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V21" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W21" s="19">
@@ -19950,7 +20222,7 @@
         <v>食人花</v>
       </c>
       <c r="Z21" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>17</v>
       </c>
     </row>
@@ -19960,15 +20232,19 @@
         <v>1000018</v>
       </c>
       <c r="B22" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C22" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D22" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E22" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F22" s="19">
@@ -19980,6 +20256,7 @@
         <v>220</v>
       </c>
       <c r="H22" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I22" s="19">
@@ -19987,43 +20264,55 @@
         <v>233</v>
       </c>
       <c r="J22" s="19">
-        <f>VLOOKUP(Z22,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K22" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L22" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M22" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N22" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O22" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P22" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q22" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R22" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S22" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T22" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U22" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V22" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W22" s="19">
@@ -20039,7 +20328,7 @@
         <v>食人花</v>
       </c>
       <c r="Z22" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>18</v>
       </c>
     </row>
@@ -20049,15 +20338,19 @@
         <v>1000019</v>
       </c>
       <c r="B23" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C23" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D23" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E23" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F23" s="19">
@@ -20069,6 +20362,7 @@
         <v>180</v>
       </c>
       <c r="H23" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I23" s="19">
@@ -20076,43 +20370,55 @@
         <v>334</v>
       </c>
       <c r="J23" s="19">
-        <f>VLOOKUP(Z23,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K23" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L23" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M23" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N23" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O23" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P23" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q23" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R23" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S23" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T23" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U23" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V23" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W23" s="19">
@@ -20128,7 +20434,7 @@
         <v>小花精</v>
       </c>
       <c r="Z23" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>19</v>
       </c>
     </row>
@@ -20138,15 +20444,19 @@
         <v>1000020</v>
       </c>
       <c r="B24" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C24" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D24" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E24" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F24" s="19">
@@ -20158,6 +20468,7 @@
         <v>180</v>
       </c>
       <c r="H24" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I24" s="19">
@@ -20165,43 +20476,55 @@
         <v>334</v>
       </c>
       <c r="J24" s="19">
-        <f>VLOOKUP(Z24,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K24" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L24" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M24" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N24" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O24" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P24" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q24" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R24" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S24" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T24" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U24" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V24" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W24" s="19">
@@ -20217,7 +20540,7 @@
         <v>小花精</v>
       </c>
       <c r="Z24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>20</v>
       </c>
     </row>
@@ -20227,15 +20550,19 @@
         <v>1000021</v>
       </c>
       <c r="B25" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C25" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D25" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E25" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F25" s="19">
@@ -20247,6 +20574,7 @@
         <v>213</v>
       </c>
       <c r="H25" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I25" s="19">
@@ -20254,43 +20582,55 @@
         <v>356</v>
       </c>
       <c r="J25" s="19">
-        <f>VLOOKUP(Z25,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K25" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L25" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M25" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N25" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O25" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P25" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q25" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R25" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S25" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T25" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U25" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V25" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W25" s="19">
@@ -20306,7 +20646,7 @@
         <v>小蘑菇</v>
       </c>
       <c r="Z25" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>21</v>
       </c>
     </row>
@@ -20316,15 +20656,19 @@
         <v>1000022</v>
       </c>
       <c r="B26" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C26" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D26" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E26" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F26" s="19">
@@ -20336,6 +20680,7 @@
         <v>213</v>
       </c>
       <c r="H26" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I26" s="19">
@@ -20343,43 +20688,55 @@
         <v>356</v>
       </c>
       <c r="J26" s="19">
-        <f>VLOOKUP(Z26,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K26" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L26" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M26" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N26" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O26" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P26" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q26" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R26" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S26" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T26" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U26" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V26" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W26" s="19">
@@ -20395,7 +20752,7 @@
         <v>小蘑菇</v>
       </c>
       <c r="Z26" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>22</v>
       </c>
     </row>
@@ -20405,15 +20762,19 @@
         <v>1000023</v>
       </c>
       <c r="B27" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C27" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D27" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E27" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F27" s="19">
@@ -20425,6 +20786,7 @@
         <v>234</v>
       </c>
       <c r="H27" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I27" s="19">
@@ -20432,43 +20794,55 @@
         <v>249</v>
       </c>
       <c r="J27" s="19">
-        <f>VLOOKUP(Z27,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K27" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L27" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M27" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N27" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O27" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P27" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q27" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R27" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S27" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T27" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U27" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V27" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W27" s="19">
@@ -20484,7 +20858,7 @@
         <v>食人花</v>
       </c>
       <c r="Z27" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>23</v>
       </c>
     </row>
@@ -20494,15 +20868,19 @@
         <v>1000024</v>
       </c>
       <c r="B28" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C28" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D28" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E28" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F28" s="19">
@@ -20514,6 +20892,7 @@
         <v>192</v>
       </c>
       <c r="H28" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I28" s="19">
@@ -20521,43 +20900,55 @@
         <v>356</v>
       </c>
       <c r="J28" s="19">
-        <f>VLOOKUP(Z28,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K28" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L28" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M28" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N28" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O28" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P28" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q28" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R28" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S28" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T28" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U28" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V28" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W28" s="19">
@@ -20573,7 +20964,7 @@
         <v>小花精</v>
       </c>
       <c r="Z28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>24</v>
       </c>
     </row>
@@ -20583,15 +20974,19 @@
         <v>1000025</v>
       </c>
       <c r="B29" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C29" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D29" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E29" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F29" s="19">
@@ -20603,6 +20998,7 @@
         <v>249</v>
       </c>
       <c r="H29" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I29" s="19">
@@ -20610,43 +21006,55 @@
         <v>264</v>
       </c>
       <c r="J29" s="19">
-        <f>VLOOKUP(Z29,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K29" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L29" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M29" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N29" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O29" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P29" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q29" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R29" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S29" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T29" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U29" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V29" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W29" s="19">
@@ -20662,7 +21070,7 @@
         <v>食人花</v>
       </c>
       <c r="Z29" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>25</v>
       </c>
     </row>
@@ -20672,15 +21080,19 @@
         <v>1000026</v>
       </c>
       <c r="B30" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C30" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D30" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E30" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F30" s="19">
@@ -20692,6 +21104,7 @@
         <v>249</v>
       </c>
       <c r="H30" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I30" s="19">
@@ -20699,43 +21112,55 @@
         <v>264</v>
       </c>
       <c r="J30" s="19">
-        <f>VLOOKUP(Z30,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K30" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L30" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M30" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N30" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O30" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P30" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q30" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R30" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S30" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T30" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U30" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V30" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W30" s="19">
@@ -20751,7 +21176,7 @@
         <v>食人花</v>
       </c>
       <c r="Z30" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>26</v>
       </c>
     </row>
@@ -20761,15 +21186,19 @@
         <v>1000027</v>
       </c>
       <c r="B31" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C31" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D31" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E31" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F31" s="19">
@@ -20781,6 +21210,7 @@
         <v>249</v>
       </c>
       <c r="H31" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I31" s="19">
@@ -20788,43 +21218,55 @@
         <v>264</v>
       </c>
       <c r="J31" s="19">
-        <f>VLOOKUP(Z31,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K31" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L31" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M31" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N31" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O31" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P31" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q31" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R31" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S31" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T31" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U31" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V31" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W31" s="19">
@@ -20840,7 +21282,7 @@
         <v>食人花</v>
       </c>
       <c r="Z31" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>27</v>
       </c>
     </row>
@@ -20850,15 +21292,19 @@
         <v>1000028</v>
       </c>
       <c r="B32" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C32" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D32" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E32" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F32" s="19">
@@ -20870,6 +21316,7 @@
         <v>226</v>
       </c>
       <c r="H32" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I32" s="19">
@@ -20877,43 +21324,55 @@
         <v>378</v>
       </c>
       <c r="J32" s="19">
-        <f>VLOOKUP(Z32,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K32" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L32" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M32" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N32" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O32" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P32" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q32" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R32" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S32" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T32" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U32" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V32" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W32" s="19">
@@ -20929,7 +21388,7 @@
         <v>狂暴莉莉丝</v>
       </c>
       <c r="Z32" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>28</v>
       </c>
     </row>
@@ -20939,15 +21398,19 @@
         <v>1000029</v>
       </c>
       <c r="B33" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C33" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D33" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E33" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F33" s="19">
@@ -20959,6 +21422,7 @@
         <v>311</v>
       </c>
       <c r="H33" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I33" s="19">
@@ -20966,43 +21430,55 @@
         <v>330</v>
       </c>
       <c r="J33" s="19">
-        <f>VLOOKUP(Z33,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K33" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L33" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M33" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N33" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O33" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P33" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q33" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R33" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S33" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T33" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U33" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V33" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W33" s="19">
@@ -21018,25 +21494,29 @@
         <v>食人花</v>
       </c>
       <c r="Z33" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="19">
-        <f t="shared" ref="A34:A53" si="2">W34</f>
+        <f t="shared" ref="A34:A53" si="33">W34</f>
         <v>1000030</v>
       </c>
       <c r="B34" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C34" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D34" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E34" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F34" s="19">
@@ -21048,6 +21528,7 @@
         <v>311</v>
       </c>
       <c r="H34" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I34" s="19">
@@ -21055,43 +21536,55 @@
         <v>330</v>
       </c>
       <c r="J34" s="19">
-        <f>VLOOKUP(Z34,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K34" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L34" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M34" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N34" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O34" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P34" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q34" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R34" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S34" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T34" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U34" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V34" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W34" s="19">
@@ -21107,25 +21600,29 @@
         <v>食人花</v>
       </c>
       <c r="Z34" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="33"/>
         <v>1000031</v>
       </c>
       <c r="B35" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C35" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D35" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E35" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F35" s="19">
@@ -21137,6 +21634,7 @@
         <v>254</v>
       </c>
       <c r="H35" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I35" s="19">
@@ -21144,43 +21642,55 @@
         <v>472</v>
       </c>
       <c r="J35" s="19">
-        <f>VLOOKUP(Z35,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K35" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L35" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M35" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N35" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O35" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P35" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q35" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R35" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S35" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T35" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U35" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V35" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W35" s="19">
@@ -21196,25 +21706,29 @@
         <v>小花精</v>
       </c>
       <c r="Z35" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="33"/>
         <v>1000032</v>
       </c>
       <c r="B36" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C36" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D36" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E36" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F36" s="19">
@@ -21226,6 +21740,7 @@
         <v>212</v>
       </c>
       <c r="H36" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I36" s="19">
@@ -21233,43 +21748,55 @@
         <v>472</v>
       </c>
       <c r="J36" s="19">
-        <f>VLOOKUP(Z36,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K36" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L36" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M36" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N36" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O36" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P36" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q36" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R36" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S36" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T36" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U36" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V36" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W36" s="19">
@@ -21285,25 +21812,29 @@
         <v>树妖</v>
       </c>
       <c r="Z36" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="33"/>
         <v>1000033</v>
       </c>
       <c r="B37" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C37" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D37" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E37" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F37" s="19">
@@ -21315,6 +21846,7 @@
         <v>304</v>
       </c>
       <c r="H37" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I37" s="19">
@@ -21322,43 +21854,55 @@
         <v>508</v>
       </c>
       <c r="J37" s="19">
-        <f>VLOOKUP(Z37,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K37" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L37" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M37" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N37" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O37" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P37" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q37" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R37" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S37" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T37" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U37" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V37" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W37" s="19">
@@ -21374,25 +21918,29 @@
         <v>小蘑菇</v>
       </c>
       <c r="Z37" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="33"/>
         <v>1000034</v>
       </c>
       <c r="B38" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C38" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D38" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E38" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F38" s="19">
@@ -21404,6 +21952,7 @@
         <v>228</v>
       </c>
       <c r="H38" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I38" s="19">
@@ -21411,43 +21960,55 @@
         <v>508</v>
       </c>
       <c r="J38" s="19">
-        <f>VLOOKUP(Z38,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K38" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L38" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M38" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N38" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O38" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P38" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q38" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R38" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S38" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T38" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U38" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V38" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W38" s="19">
@@ -21463,25 +22024,29 @@
         <v>树妖</v>
       </c>
       <c r="Z38" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="33"/>
         <v>1000035</v>
       </c>
       <c r="B39" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C39" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D39" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E39" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F39" s="19">
@@ -21493,6 +22058,7 @@
         <v>304</v>
       </c>
       <c r="H39" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I39" s="19">
@@ -21500,43 +22066,55 @@
         <v>508</v>
       </c>
       <c r="J39" s="19">
-        <f>VLOOKUP(Z39,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K39" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L39" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M39" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N39" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O39" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P39" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q39" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R39" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S39" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T39" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U39" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V39" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W39" s="19">
@@ -21552,25 +22130,29 @@
         <v>小蘑菇</v>
       </c>
       <c r="Z39" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="33"/>
         <v>1000036</v>
       </c>
       <c r="B40" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C40" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D40" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E40" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F40" s="19">
@@ -21582,6 +22164,7 @@
         <v>274</v>
       </c>
       <c r="H40" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I40" s="19">
@@ -21589,43 +22172,55 @@
         <v>508</v>
       </c>
       <c r="J40" s="19">
-        <f>VLOOKUP(Z40,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K40" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L40" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M40" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N40" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O40" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P40" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q40" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R40" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S40" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T40" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U40" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V40" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W40" s="19">
@@ -21641,25 +22236,29 @@
         <v>小花精</v>
       </c>
       <c r="Z40" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="33"/>
         <v>1000037</v>
       </c>
       <c r="B41" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C41" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D41" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E41" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F41" s="19">
@@ -21671,6 +22270,7 @@
         <v>382</v>
       </c>
       <c r="H41" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I41" s="19">
@@ -21678,43 +22278,55 @@
         <v>406</v>
       </c>
       <c r="J41" s="19">
-        <f>VLOOKUP(Z41,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K41" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L41" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M41" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N41" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O41" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P41" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q41" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R41" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S41" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T41" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U41" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V41" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W41" s="19">
@@ -21730,25 +22342,29 @@
         <v>食人花</v>
       </c>
       <c r="Z41" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="33"/>
         <v>1000038</v>
       </c>
       <c r="B42" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C42" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D42" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E42" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F42" s="19">
@@ -21760,6 +22376,7 @@
         <v>261</v>
       </c>
       <c r="H42" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I42" s="19">
@@ -21767,43 +22384,55 @@
         <v>580</v>
       </c>
       <c r="J42" s="19">
-        <f>VLOOKUP(Z42,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K42" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L42" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M42" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N42" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O42" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P42" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q42" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R42" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S42" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T42" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U42" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V42" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W42" s="19">
@@ -21819,25 +22448,29 @@
         <v>树妖</v>
       </c>
       <c r="Z42" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="33"/>
         <v>1000039</v>
       </c>
       <c r="B43" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C43" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D43" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E43" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F43" s="19">
@@ -21849,6 +22482,7 @@
         <v>382</v>
       </c>
       <c r="H43" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I43" s="19">
@@ -21856,43 +22490,55 @@
         <v>406</v>
       </c>
       <c r="J43" s="19">
-        <f>VLOOKUP(Z43,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K43" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L43" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M43" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N43" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O43" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P43" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q43" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R43" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S43" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T43" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U43" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V43" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W43" s="19">
@@ -21908,25 +22554,29 @@
         <v>食人花</v>
       </c>
       <c r="Z43" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="33"/>
         <v>1000040</v>
       </c>
       <c r="B44" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C44" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D44" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E44" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F44" s="19">
@@ -21938,6 +22588,7 @@
         <v>330</v>
       </c>
       <c r="H44" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I44" s="19">
@@ -21945,43 +22596,55 @@
         <v>580</v>
       </c>
       <c r="J44" s="19">
-        <f>VLOOKUP(Z44,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K44" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L44" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M44" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N44" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O44" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P44" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q44" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R44" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S44" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T44" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U44" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V44" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W44" s="19">
@@ -21997,25 +22660,29 @@
         <v>毒蘑菇</v>
       </c>
       <c r="Z44" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="33"/>
         <v>1000041</v>
       </c>
       <c r="B45" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C45" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D45" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E45" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F45" s="19">
@@ -22027,6 +22694,7 @@
         <v>369</v>
       </c>
       <c r="H45" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I45" s="19">
@@ -22034,43 +22702,55 @@
         <v>616</v>
       </c>
       <c r="J45" s="19">
-        <f>VLOOKUP(Z45,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K45" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L45" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M45" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N45" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O45" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P45" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q45" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R45" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S45" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T45" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U45" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V45" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W45" s="19">
@@ -22086,25 +22766,29 @@
         <v>小蘑菇</v>
       </c>
       <c r="Z45" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="33"/>
         <v>1000042</v>
       </c>
       <c r="B46" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C46" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D46" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E46" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F46" s="19">
@@ -22116,6 +22800,7 @@
         <v>369</v>
       </c>
       <c r="H46" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I46" s="19">
@@ -22123,43 +22808,55 @@
         <v>616</v>
       </c>
       <c r="J46" s="19">
-        <f>VLOOKUP(Z46,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K46" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L46" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M46" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N46" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O46" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P46" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q46" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R46" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S46" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T46" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U46" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V46" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W46" s="19">
@@ -22175,25 +22872,29 @@
         <v>小蘑菇</v>
       </c>
       <c r="Z46" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="33"/>
         <v>1000043</v>
       </c>
       <c r="B47" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C47" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D47" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E47" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F47" s="19">
@@ -22205,6 +22906,7 @@
         <v>351</v>
       </c>
       <c r="H47" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I47" s="19">
@@ -22212,43 +22914,55 @@
         <v>616</v>
       </c>
       <c r="J47" s="19">
-        <f>VLOOKUP(Z47,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K47" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L47" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M47" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N47" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O47" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P47" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q47" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R47" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S47" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T47" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U47" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V47" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W47" s="19">
@@ -22264,25 +22978,29 @@
         <v>毒蘑菇</v>
       </c>
       <c r="Z47" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="33"/>
         <v>1000044</v>
       </c>
       <c r="B48" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C48" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D48" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E48" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F48" s="19">
@@ -22294,6 +23012,7 @@
         <v>351</v>
       </c>
       <c r="H48" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I48" s="19">
@@ -22301,43 +23020,55 @@
         <v>616</v>
       </c>
       <c r="J48" s="19">
-        <f>VLOOKUP(Z48,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K48" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L48" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M48" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N48" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O48" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P48" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q48" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R48" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S48" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T48" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U48" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V48" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W48" s="19">
@@ -22353,25 +23084,29 @@
         <v>毒蘑菇</v>
       </c>
       <c r="Z48" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="33"/>
         <v>1000045</v>
       </c>
       <c r="B49" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C49" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D49" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E49" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F49" s="19">
@@ -22383,6 +23118,7 @@
         <v>332</v>
       </c>
       <c r="H49" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I49" s="19">
@@ -22390,43 +23126,55 @@
         <v>616</v>
       </c>
       <c r="J49" s="19">
-        <f>VLOOKUP(Z49,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K49" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L49" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M49" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N49" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O49" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P49" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q49" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R49" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S49" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T49" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U49" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V49" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W49" s="19">
@@ -22442,25 +23190,29 @@
         <v>小花精</v>
       </c>
       <c r="Z49" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="33"/>
         <v>1000046</v>
       </c>
       <c r="B50" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C50" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D50" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E50" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F50" s="19">
@@ -22472,6 +23224,7 @@
         <v>309</v>
       </c>
       <c r="H50" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I50" s="19">
@@ -22479,43 +23232,55 @@
         <v>688</v>
       </c>
       <c r="J50" s="19">
-        <f>VLOOKUP(Z50,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K50" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L50" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M50" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N50" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O50" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P50" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q50" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R50" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S50" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T50" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U50" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V50" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W50" s="19">
@@ -22531,25 +23296,29 @@
         <v>树妖</v>
       </c>
       <c r="Z50" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="33"/>
         <v>1000047</v>
       </c>
       <c r="B51" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C51" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D51" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E51" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F51" s="19">
@@ -22561,6 +23330,7 @@
         <v>454</v>
       </c>
       <c r="H51" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I51" s="19">
@@ -22568,43 +23338,55 @@
         <v>481</v>
       </c>
       <c r="J51" s="19">
-        <f>VLOOKUP(Z51,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K51" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L51" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M51" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N51" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O51" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P51" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q51" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R51" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S51" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T51" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U51" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V51" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W51" s="19">
@@ -22620,25 +23402,29 @@
         <v>食人花</v>
       </c>
       <c r="Z51" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="33"/>
         <v>1000048</v>
       </c>
       <c r="B52" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C52" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D52" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E52" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F52" s="19">
@@ -22650,6 +23436,7 @@
         <v>454</v>
       </c>
       <c r="H52" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I52" s="19">
@@ -22657,43 +23444,55 @@
         <v>481</v>
       </c>
       <c r="J52" s="19">
-        <f>VLOOKUP(Z52,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K52" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L52" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M52" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N52" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O52" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P52" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q52" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R52" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S52" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T52" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U52" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V52" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W52" s="19">
@@ -22709,25 +23508,29 @@
         <v>食人花</v>
       </c>
       <c r="Z52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="33"/>
         <v>1000049</v>
       </c>
       <c r="B53" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C53" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D53" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E53" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F53" s="19">
@@ -22739,6 +23542,7 @@
         <v>392</v>
       </c>
       <c r="H53" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I53" s="19">
@@ -22746,43 +23550,55 @@
         <v>688</v>
       </c>
       <c r="J53" s="19">
-        <f>VLOOKUP(Z53,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K53" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L53" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M53" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N53" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O53" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P53" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q53" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R53" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S53" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T53" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U53" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V53" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W53" s="19">
@@ -22798,25 +23614,29 @@
         <v>毒蘑菇</v>
       </c>
       <c r="Z53" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="19">
-        <f t="shared" ref="A54:A60" si="3">W54</f>
+        <f t="shared" ref="A54:A60" si="34">W54</f>
         <v>1000050</v>
       </c>
       <c r="B54" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C54" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D54" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E54" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F54" s="19">
@@ -22828,6 +23648,7 @@
         <v>371</v>
       </c>
       <c r="H54" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I54" s="19">
@@ -22835,43 +23656,55 @@
         <v>688</v>
       </c>
       <c r="J54" s="19">
-        <f>VLOOKUP(Z54,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K54" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L54" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M54" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N54" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O54" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P54" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q54" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R54" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S54" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T54" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U54" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V54" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W54" s="19">
@@ -22887,25 +23720,29 @@
         <v>小花精</v>
       </c>
       <c r="Z54" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="34"/>
         <v>1000051</v>
       </c>
       <c r="B55" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C55" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D55" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E55" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F55" s="19">
@@ -22917,6 +23754,7 @@
         <v>325</v>
       </c>
       <c r="H55" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I55" s="19">
@@ -22924,43 +23762,55 @@
         <v>724</v>
       </c>
       <c r="J55" s="19">
-        <f>VLOOKUP(Z55,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K55" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L55" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M55" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N55" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O55" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P55" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q55" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R55" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S55" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T55" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U55" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V55" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W55" s="19">
@@ -22976,25 +23826,29 @@
         <v>树妖</v>
       </c>
       <c r="Z55" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="34"/>
         <v>1000052</v>
       </c>
       <c r="B56" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C56" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D56" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E56" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F56" s="19">
@@ -23006,6 +23860,7 @@
         <v>325</v>
       </c>
       <c r="H56" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I56" s="19">
@@ -23013,43 +23868,55 @@
         <v>724</v>
       </c>
       <c r="J56" s="19">
-        <f>VLOOKUP(Z56,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K56" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L56" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M56" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N56" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O56" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P56" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q56" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R56" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S56" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T56" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U56" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V56" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W56" s="19">
@@ -23065,25 +23932,29 @@
         <v>树妖</v>
       </c>
       <c r="Z56" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="34"/>
         <v>1000053</v>
       </c>
       <c r="B57" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C57" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D57" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E57" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F57" s="19">
@@ -23095,6 +23966,7 @@
         <v>412</v>
       </c>
       <c r="H57" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I57" s="19">
@@ -23102,43 +23974,55 @@
         <v>724</v>
       </c>
       <c r="J57" s="19">
-        <f>VLOOKUP(Z57,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K57" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L57" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M57" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N57" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O57" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P57" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q57" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R57" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S57" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T57" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U57" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V57" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W57" s="19">
@@ -23154,25 +24038,29 @@
         <v>毒蘑菇</v>
       </c>
       <c r="Z57" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="34"/>
         <v>1000054</v>
       </c>
       <c r="B58" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C58" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D58" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E58" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F58" s="19">
@@ -23184,6 +24072,7 @@
         <v>412</v>
       </c>
       <c r="H58" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I58" s="19">
@@ -23191,43 +24080,55 @@
         <v>724</v>
       </c>
       <c r="J58" s="19">
-        <f>VLOOKUP(Z58,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K58" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L58" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M58" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N58" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O58" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P58" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q58" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R58" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S58" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T58" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U58" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V58" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W58" s="19">
@@ -23243,25 +24144,29 @@
         <v>毒蘑菇</v>
       </c>
       <c r="Z58" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="34"/>
         <v>1000055</v>
       </c>
       <c r="B59" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C59" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D59" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E59" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F59" s="19">
@@ -23273,6 +24178,7 @@
         <v>412</v>
       </c>
       <c r="H59" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I59" s="19">
@@ -23280,43 +24186,55 @@
         <v>724</v>
       </c>
       <c r="J59" s="19">
-        <f>VLOOKUP(Z59,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K59" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L59" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M59" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N59" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O59" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P59" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q59" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R59" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S59" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T59" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U59" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V59" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W59" s="19">
@@ -23332,25 +24250,29 @@
         <v>毒蘑菇</v>
       </c>
       <c r="Z59" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="34"/>
         <v>1000056</v>
       </c>
       <c r="B60" s="19">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C60" s="19">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D60" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E60" s="19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F60" s="19">
@@ -23362,6 +24284,7 @@
         <v>695</v>
       </c>
       <c r="H60" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I60" s="19">
@@ -23369,43 +24292,55 @@
         <v>724</v>
       </c>
       <c r="J60" s="19">
-        <f>VLOOKUP(Z60,主线配置!H:N,7,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K60" s="19">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L60" s="19">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M60" s="19">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N60" s="19">
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="O60" s="19">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P60" s="19">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q60" s="19">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R60" s="19">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S60" s="19">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T60" s="19">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U60" s="19">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V60" s="19">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W60" s="19">
@@ -23421,7 +24356,7 @@
         <v>黄蜂怪</v>
       </c>
       <c r="Z60" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>56</v>
       </c>
     </row>
@@ -45873,8 +46808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z108"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
